--- a/models/MLP/Error_Only/metrics.xlsx
+++ b/models/MLP/Error_Only/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,2049 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6548567062022819</v>
+        <v>0.6785177801799779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9960012618400258</v>
+        <v>0.9939655806887472</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8529226324518425</v>
+        <v>0.7235114279415008</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8839391852387316</v>
+        <v>0.4747894575512134</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8105189588688946</v>
+        <v>0.7462042095115681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8875719785196687</v>
+        <v>0.8211120932457648</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8766453290962251</v>
+        <v>0.8726770666805601</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6851018198135699</v>
+        <v>0.6084376508447304</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9229551242789081</v>
+        <v>0.8590196200560571</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8353588028248461</v>
+        <v>0.849139587419562</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7877050383472166</v>
+        <v>0.5598523748395379</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9063638088436238</v>
+        <v>0.8687924484862438</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6400075107748031</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9856659107730807</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6989946351142795</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.439985660773383</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7422075835475579</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8594280174503151</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8607131203058032</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8192823813354787</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8752226720647773</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8479631106942168</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5225850449293966</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9064855531253597</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6540672207124723</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9830652989297602</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7078033365179688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4587100314110825</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8040347847043702</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8308415626712795</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8283495145631068</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6442735317779565</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8745619459905174</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8692130339876043</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5185006865315002</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8600713710141591</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6906424892895547</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9826797723709555</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7768752310109037</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.418212890625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7218026992287918</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8593586843021233</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8342071197411003</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.687124698310539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8756515593250288</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8559778558967661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3909484833895041</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.841422815701623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6240566137083242</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9868455838410317</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7688786310713865</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4482977219820419</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7547706090310139</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8631538588285994</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8680598979759749</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7848213710975217</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8381400912013156</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8863409150489427</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.669675814476007</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7438104448742747</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.578547261725934</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.980478920845027</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7355596384214007</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5016651167140311</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7472083868894601</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8408498316114296</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8318548641407922</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7172260659694288</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8746670819059483</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8197076352037247</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6856346277278562</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8469160815010935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6763347418960846</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9846303180446565</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8020489453957522</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5280809854581539</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8036331137532133</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.822154423249345</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8396685852489449</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6309380530973451</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8650763002180006</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8769757431774948</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4664032413350448</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8383239323126511</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6687096962596755</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9918905764186197</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8079400308664657</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5419116462628866</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6918079209511568</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8338608346877288</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8553721682847896</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6943909895414321</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8547010434765537</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8567449220222492</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6302359171882523</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9268976631748591</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6536326188455738</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9876787725362057</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7554605202365553</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4679622060244846</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6584290649100257</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8612575207597831</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7960126752966559</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7555913113435238</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8518346732632448</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8647969247223221</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5448385313575491</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8173178312420859</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6666432648361754</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9841216834368907</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7545777960719745</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5450823079481211</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6970914349991965</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8606284142616323</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8135565794525808</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.720656581911812</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8328997533079167</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8254679883941545</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3772067083935163</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8743299253937551</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6169504850416251</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.990460083680614</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7442081281693246</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4656430052109581</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.786290970437018</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8265898700730898</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.851953361723598</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7334255832662911</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8937950794145126</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8854041951082984</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.680198973042362</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8409301254748475</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.747845039378922</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9914482884078881</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.75682957301389</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6306584094888273</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7866825996143958</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8139995374462599</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8311446505008515</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.677512469831054</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8629523512924323</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8734560054702774</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4257662066752246</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8592885921491884</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6684211068777034</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9820529662458566</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6732813992797825</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5453396826675257</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7238913881748072</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8442952233405885</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8011070658036678</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6657699115044247</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8704071816316714</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.839185682601187</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5982275004903796</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7672959594796822</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7258400871265086</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9760053546705475</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7765113888375532</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5649514739046392</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.592374276992288</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8779461488737506</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.816445523193096</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6783395012067578</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8612166367268409</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8718101007267404</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3211719181868435</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8488223782663751</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6698130427762059</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9922883407113969</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7110402210984359</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5657164532756901</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8300658846215652</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8844822997072133</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8413608688497616</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7000708078532347</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8490344122997184</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8659973606920852</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4788557213930348</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8914018605507967</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6430100658421194</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9888351786301984</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7586477548320717</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5458699390582868</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7243533097686375</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8757472935853935</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8431565842837124</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7466452131938858</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.852122080348801</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.893396358434531</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.43238526957638</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8562679866467136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6496521879518748</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.990632971772721</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6753670904681414</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5584817044976335</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.784915247429306</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8425099559940311</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9105980876332337</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7043572003218022</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8415359701027718</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8567997124597837</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4581193838254172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7832761597789801</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6513324927594984</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9853628358646279</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.776535606673036</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4631725193298968</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7220035347043702</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8798120637817253</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8693352211434736</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.686390989541432</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8882017453446025</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8587108029209878</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.469052586529717</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8248601358351559</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6729354693528383</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9837228291435165</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7309242746257625</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.569250362435567</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7393155526992289</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8034533339963202</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8054112729234089</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6652807723250203</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8628498296865643</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8924573292072481</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.320458638706111</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.855416139058363</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6350227114764918</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9833478737888462</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7504836528284135</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4976772946458264</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.765607424071991</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8223538284091918</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7898003400800835</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7035468297392984</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8856146121452243</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8295469188079571</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5695714973519499</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.8099290780141845</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7043141328915782</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9912212426001814</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7239244506504006</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5685867029649987</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7549807197943446</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8659576288101281</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8221518102221406</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6896283185840707</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8090675801930861</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8910617937719767</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.6125441270860077</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.862221710602049</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6768401398267608</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9830981060074794</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7404424193429853</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4859309327251284</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7590074710796916</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8977376053022599</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8598822526112005</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6866548672566372</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8973976954219869</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.898506193511059</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.378951379974326</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9338229538390699</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6899313225982664</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9929108938939259</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7982773572425957</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4890539424935567</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.738532294344473</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8082968201014451</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7933468176914779</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6231826226870474</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8620166681391171</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8937197008880435</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4319085575705701</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8442224012892828</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6785440665679509</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9859877325830869</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7731068656440585</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5245801788015464</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6706699871465295</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8947311172989907</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8905434196332255</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7564022526146419</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8363837598531477</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7991930464359916</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3956382959753205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7651939679981582</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6284163747288313</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9825827605854864</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7315653298835705</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.519418232457599</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6485818736943596</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.829261568880946</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8447260161263781</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7359510782104925</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8854725773093119</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8612097272270828</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4590154068367839</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8327300359215253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6459705044152124</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9855273920004888</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7319894172117294</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5227843037422265</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8109836921593829</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8343265566042219</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7723203145780262</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6780016090104586</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8485605730302086</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8658924767487577</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5159860397946084</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8468562219408311</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.746251632014151</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9870504041693109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7708311898287646</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5486104977685877</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8263676895886889</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8530219649663064</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8419568990811097</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6703523732904264</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8685356586733106</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8842913623971036</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5300866495507061</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.867443306089559</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6083206502880741</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.990502090626688</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.699689865510399</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.465649162371134</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.686746866966581</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7910112501940507</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8388565264293421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.7192019308125503</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8783191487273119</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8724938853871711</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5783270029779418</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8332312651087832</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6763435725304136</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.992890411168154</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7536788486416559</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4179838514819588</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7147533740359897</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8344158669384913</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8653074433656958</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6383588093322606</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8804664723032071</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8809579121775035</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6364414486706254</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7417474387015079</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6767107323134816</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9828220867432093</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7203457603198871</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.589941178915863</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.70096818254861</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8619687694082158</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8555372716801053</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6842034116511104</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8541576337494705</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8323750660937799</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.4628671160327396</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8374827300359214</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7120986649071331</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9824117611117051</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.771546997868744</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5268366938730978</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8047577924164524</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8803062992849426</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8564408699157341</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7411359613837489</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8921009031454377</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.904880372997239</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.7160622593068036</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8630090940485784</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6611710491218711</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9926921800424653</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7545880796648784</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6093132237802565</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5892312017994858</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8488906630676184</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8670968166524533</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7278455349959775</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8912214263469325</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8552765382963242</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6139882862644416</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8229630482329918</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6937379539699936</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.986841237351049</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7427324171382378</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4842365697487113</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8053602988431877</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8355209590703304</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8456499460625674</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.6444537409493162</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8910987916089957</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.885917542583128</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.5203195492073682</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8430666513180614</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6654802436518925</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9905711764305621</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6349045924967659</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5392487516108246</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6724473811053984</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.823700338123415</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8037001078748651</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.6865004022526147</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8194088602251868</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8513491597338501</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7063071738083775</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8455347070334983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6514613273050218</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9834007481725291</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7326296601199577</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4761442051878949</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7824602281857626</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.8887885470930454</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8159193132576381</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7610621177985195</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8459794174079889</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8538449917577168</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.3992938533140747</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8257161278437875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5749726242787551</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9819165304623264</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7527287425589769</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5503067867143947</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7476903920308483</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.832688609455739</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.848322771533321</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6933386967015286</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8950731859233884</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8181127565855382</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5467947689345314</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8369241395188213</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7083994328312111</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9879346330259304</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.768769015947674</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4970022703775477</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7401590616966581</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.908952949413729</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8516558397933526</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7195237329042639</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8554070383058239</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8774513241752944</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5284419127086007</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8613422355243467</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7038076620480913</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9899926262187222</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7624017050047769</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.536389537693299</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5086861343187661</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7900417882454323</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8359708737864078</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6660659694288011</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8938854040894858</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8697675132154535</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4619554556964283</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.844788764820997</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6446399675680504</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9893364846643401</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7455487086490482</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6002889416881443</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7668300128534704</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.8725728457063299</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8389212513484359</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.691031375703942</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8435779073534175</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8473713739688441</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.5321421566005101</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.9090364913088523</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6841490041351035</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9847189552578358</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7321121956956368</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5382856667775191</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.678732122770368</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8171508422373474</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8712632329548572</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6987254586417766</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.841703421295258</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8859188035137451</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.4805408441662654</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8450584876116791</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6970946638401819</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.981427028032867</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.734586609833174</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4866504917419563</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.737015986503856</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.843086564081118</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.80377948826228</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.743079646017699</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8544416069760199</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8633979799685023</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5027679717586651</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8326418786692759</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7124110289059539</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9877843106486567</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8136811935033439</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6443144446926679</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.651339572622108</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8802080858195597</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.822121646708475</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.7477908286403862</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8742173777639365</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8820164634306704</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6208681001283698</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.864570047196961</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.708569386850631</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9924498589816405</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8100771661644741</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5832368516430412</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8028900224935732</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.8892563973399992</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8086003236245954</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.7336894609814965</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8757435874782814</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8444981634245338</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.5519534941778562</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8708783239323127</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6203417722823642</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9862672002821756</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7675741545000924</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.558019893685567</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7160487628534704</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7739079359554474</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.86626213592233</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6551311343523734</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8638314633212592</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.860749007197272</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6489951675315181</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8549464717393807</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6973265748846875</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9771933998854853</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6791544160884394</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.4650295144662454</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7269504258396271</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8515184354284701</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8612720092150732</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.6871258448664307</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8136627544790811</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9040651562479172</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.6507181832771626</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9047204568481164</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7208413471662619</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9869644808705228</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7491820386565738</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5536500085723637</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.701869778277635</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8914234299310289</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.7775605395429953</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.728659694288013</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8706122703207724</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8390083320190763</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5728297496790757</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8794796822838724</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6377560331877975</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9870615134443058</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7833967810685676</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5010156952186992</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7986021850899743</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8645984811762805</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8669597097721559</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7175028157683025</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8578299595141701</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8743721015858544</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.5715861681643133</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8895268792448487</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7128295158226</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9893587032143298</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7611802748585288</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6126167847938144</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7141809929305912</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.8611420008300621</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8140830636461704</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.7781303298471439</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8077126954677976</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8778019829755154</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.5163786800763209</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8112812248186947</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5931233272981506</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9894694487994345</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6983199732027352</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5395658827319587</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5973248714652957</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7965448013524937</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8388025889967637</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7307803700724055</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8806112632643245</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8445332293045559</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6035770965958737</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8428732588925981</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.6645546514648376</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9775182990589054</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7976508291191344</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4672171183904223</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6833018640527078</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.85663586701649</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.873994843947123</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6805535886707434</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8661433804290947</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8524831266467905</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.2907037393676777</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7893755180989223</v>
       </c>
     </row>
   </sheetData>
